--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5112" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Distributor_Add" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:Q15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -29,16 +31,81 @@
   </si>
   <si>
     <t>Heera@11</t>
+  </si>
+  <si>
+    <t>Distributor Code</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Contact Person name</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>Pin Code</t>
+  </si>
+  <si>
+    <t>Pan Number</t>
+  </si>
+  <si>
+    <t>FSSAI Licence number</t>
+  </si>
+  <si>
+    <t>DB5102</t>
+  </si>
+  <si>
+    <t>Aniket Enterprices</t>
+  </si>
+  <si>
+    <t>Aniket sharma</t>
+  </si>
+  <si>
+    <t>aniket.jadhav@heerasoftware.com</t>
+  </si>
+  <si>
+    <t>krudhani sahara appartment</t>
+  </si>
+  <si>
+    <t>washing center</t>
+  </si>
+  <si>
+    <t>mumbai</t>
+  </si>
+  <si>
+    <t>KOPGF5479U</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -61,13 +128,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -407,4 +478,102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>9457863214</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>400701</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2">
+        <v>10017022012345</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04900757-F4E1-463D-9E12-390142BB3FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Route_Add" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -29,12 +31,15 @@
   </si>
   <si>
     <t>Heera@11</t>
+  </si>
+  <si>
+    <t>Karve Nagar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,9 +89,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -124,9 +129,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -161,7 +166,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,7 +201,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -369,20 +374,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -402,6 +407,26 @@
       </c>
       <c r="C2">
         <v>568978</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64544C8D-F492-4A3C-91E6-D7886F11C0BB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5112" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Distributor_Add" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:Q15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -29,16 +31,81 @@
   </si>
   <si>
     <t>Heera@11</t>
+  </si>
+  <si>
+    <t>Distributor Code</t>
+  </si>
+  <si>
+    <t>Distributor Name</t>
+  </si>
+  <si>
+    <t>Contact person name</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>PinCode</t>
+  </si>
+  <si>
+    <t>Pan Number</t>
+  </si>
+  <si>
+    <t>FSSAI Licence Number</t>
+  </si>
+  <si>
+    <t>DB5410</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Aditya Thakur</t>
+  </si>
+  <si>
+    <t>aniket.jadhav@heerasoftware.com</t>
+  </si>
+  <si>
+    <t>ramai nagar</t>
+  </si>
+  <si>
+    <t>washing center</t>
+  </si>
+  <si>
+    <t>narhe</t>
+  </si>
+  <si>
+    <t>POYTF5487K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -61,13 +128,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -407,4 +477,103 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>9654862012</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>441611</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <v>10012022001234</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -4,11 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5112" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5112" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Distributor_Add" sheetId="2" r:id="rId2"/>
+    <sheet name="Retailer_Add" sheetId="3" r:id="rId3"/>
+    <sheet name="Vendor_Add" sheetId="4" r:id="rId4"/>
+    <sheet name="Depot_Add" sheetId="5" r:id="rId5"/>
+    <sheet name="Route_Add" sheetId="6" r:id="rId6"/>
+    <sheet name="Salesman_Add" sheetId="7" r:id="rId7"/>
+    <sheet name="User_Master_Add" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:Q15"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>Username</t>
   </si>
@@ -88,6 +94,156 @@
   </si>
   <si>
     <t>POYTF5487K</t>
+  </si>
+  <si>
+    <t>Retailer Firm Name</t>
+  </si>
+  <si>
+    <t>ERP Code</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>Land Mark</t>
+  </si>
+  <si>
+    <t>Contact Person Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Number </t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>PAN Number</t>
+  </si>
+  <si>
+    <t>Potencial Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Licence number </t>
+  </si>
+  <si>
+    <t>Expiery Date</t>
+  </si>
+  <si>
+    <t>Bank Account number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank IFSC Code </t>
+  </si>
+  <si>
+    <t>indora square</t>
+  </si>
+  <si>
+    <t>pitamber kamble</t>
+  </si>
+  <si>
+    <t>Pitamber dairy</t>
+  </si>
+  <si>
+    <t>PHSYB6579U</t>
+  </si>
+  <si>
+    <t>GST Number</t>
+  </si>
+  <si>
+    <t>09AAACH7409R1ZZ</t>
+  </si>
+  <si>
+    <t>ABHY0065107</t>
+  </si>
+  <si>
+    <t>G1001</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>Vendor ID From ERP</t>
+  </si>
+  <si>
+    <t>Email ID</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>GST No</t>
+  </si>
+  <si>
+    <t>VM1012</t>
+  </si>
+  <si>
+    <t>Yash Thakur</t>
+  </si>
+  <si>
+    <t>Maya Nagar</t>
+  </si>
+  <si>
+    <t>Narhe</t>
+  </si>
+  <si>
+    <t>VND00123</t>
+  </si>
+  <si>
+    <t>Depot Code</t>
+  </si>
+  <si>
+    <t>Depot Name</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emai ID </t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>FSSAI Expiry Date</t>
+  </si>
+  <si>
+    <t>civil lines</t>
+  </si>
+  <si>
+    <t>D51246</t>
+  </si>
+  <si>
+    <t>Aniket Enterprices</t>
+  </si>
+  <si>
+    <t>Aniket Thakur</t>
+  </si>
+  <si>
+    <t>DM1012</t>
+  </si>
+  <si>
+    <t>Route Name</t>
+  </si>
+  <si>
+    <t>Karve Nagar</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>P1001380496</t>
+  </si>
+  <si>
+    <t>Amit Kadtan</t>
+  </si>
+  <si>
+    <t>roshan.zambare@heerasoftware.com</t>
   </si>
 </sst>
 </file>
@@ -119,7 +275,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -127,14 +283,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,7 +635,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,24 +645,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>568978</v>
       </c>
     </row>
@@ -483,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +685,7 @@
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="10" max="10" width="13.109375" customWidth="1"/>
@@ -501,72 +693,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>9654862012</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>441611</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="7">
         <v>10012022001234</v>
       </c>
     </row>
@@ -576,4 +768,416 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1">
+        <v>411041</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9865470215</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="6">
+        <v>34097</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1">
+        <v>350</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="7">
+        <v>678987678987689</v>
+      </c>
+      <c r="N2" s="6">
+        <v>45955</v>
+      </c>
+      <c r="O2" s="7">
+        <v>234567890987654</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9865124780</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1">
+        <v>411041</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2">
+        <v>9657841203</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="2">
+        <v>412012</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="3">
+        <v>10012022001234</v>
+      </c>
+      <c r="K2" s="4">
+        <v>45955</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="10">
+        <v>9667774565</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -3,20 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04900757-F4E1-463D-9E12-390142BB3FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40BEBE7-EF1A-44E6-9CA5-B8E97F1FEC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Route_Add" sheetId="2" r:id="rId2"/>
+    <sheet name="Distributor_Add" sheetId="3" r:id="rId2"/>
+    <sheet name="Route_Add" sheetId="2" r:id="rId3"/>
+    <sheet name="Salesman_Add" sheetId="4" r:id="rId4"/>
+    <sheet name="User_Master_ADD" sheetId="5" r:id="rId5"/>
+    <sheet name="Retailer_Add" sheetId="6" r:id="rId6"/>
+    <sheet name="Vendor_Add" sheetId="7" r:id="rId7"/>
+    <sheet name="Depot_Add" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
   <si>
     <t>Username</t>
   </si>
@@ -34,16 +40,298 @@
   </si>
   <si>
     <t>Karve Nagar</t>
+  </si>
+  <si>
+    <t>Distributor Code</t>
+  </si>
+  <si>
+    <t>Distributor Name</t>
+  </si>
+  <si>
+    <t>Contact person name</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>PinCode</t>
+  </si>
+  <si>
+    <t>Pan Number</t>
+  </si>
+  <si>
+    <t>FSSAI Licence Number</t>
+  </si>
+  <si>
+    <t>DB5410</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Aditya Thakur</t>
+  </si>
+  <si>
+    <t>aniket.jadhav@heerasoftware.com</t>
+  </si>
+  <si>
+    <t>ramai nagar</t>
+  </si>
+  <si>
+    <t>washing center</t>
+  </si>
+  <si>
+    <t>narhe</t>
+  </si>
+  <si>
+    <t>POYTF5487K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Code/UserId </t>
+  </si>
+  <si>
+    <t>Salesman Name</t>
+  </si>
+  <si>
+    <t>Address 1 </t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Email_ID</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Adhar</t>
+  </si>
+  <si>
+    <t>Pan No</t>
+  </si>
+  <si>
+    <t>Bank Number</t>
+  </si>
+  <si>
+    <t>Account Holder Name</t>
+  </si>
+  <si>
+    <t>Bank IFSC Code</t>
+  </si>
+  <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
+    <t>Salary Contribution</t>
+  </si>
+  <si>
+    <t>Distributor Contribution</t>
+  </si>
+  <si>
+    <t>Company Contribution</t>
+  </si>
+  <si>
+    <t>P1001380495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mukesh SING </t>
+  </si>
+  <si>
+    <t>SHOP NO. 12 GROUND FLOOR Gulab shilp</t>
+  </si>
+  <si>
+    <t>roshan.zambare@heerasoftware.com</t>
+  </si>
+  <si>
+    <t>PQRSX6789L</t>
+  </si>
+  <si>
+    <t>SBIN0001234</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile </t>
+  </si>
+  <si>
+    <t>Retailer Firm Name</t>
+  </si>
+  <si>
+    <t>ERP Code</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>Land Mark</t>
+  </si>
+  <si>
+    <t>Contact Person Name</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>PAN Number</t>
+  </si>
+  <si>
+    <t>Potencial Business</t>
+  </si>
+  <si>
+    <t>GST Number</t>
+  </si>
+  <si>
+    <t>Food Licence number</t>
+  </si>
+  <si>
+    <t>Expiery Date</t>
+  </si>
+  <si>
+    <t>Bank Account number</t>
+  </si>
+  <si>
+    <t>Pitamber dairy</t>
+  </si>
+  <si>
+    <t>G1001</t>
+  </si>
+  <si>
+    <t>indora square</t>
+  </si>
+  <si>
+    <t>pitamber kamble</t>
+  </si>
+  <si>
+    <t>PHSYB6579U</t>
+  </si>
+  <si>
+    <t>09AAACH7409R1ZZ</t>
+  </si>
+  <si>
+    <t>25/10/2025</t>
+  </si>
+  <si>
+    <t>ABHY0065107</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>Vendor ID From ERP</t>
+  </si>
+  <si>
+    <t>Email ID</t>
+  </si>
+  <si>
+    <t>GST No</t>
+  </si>
+  <si>
+    <t>VM1012</t>
+  </si>
+  <si>
+    <t>Yash Thakur</t>
+  </si>
+  <si>
+    <t>VND00123</t>
+  </si>
+  <si>
+    <t>Maya Nagar</t>
+  </si>
+  <si>
+    <t>Narhe</t>
+  </si>
+  <si>
+    <t>Depot Code</t>
+  </si>
+  <si>
+    <t>Depot Name</t>
+  </si>
+  <si>
+    <t>Emai ID</t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>FSSAI Expiry Date</t>
+  </si>
+  <si>
+    <t>D51246</t>
+  </si>
+  <si>
+    <t>Aniket Enterprices</t>
+  </si>
+  <si>
+    <t>Aniket Thakur</t>
+  </si>
+  <si>
+    <t>DM1012</t>
+  </si>
+  <si>
+    <t>civil lines</t>
+  </si>
+  <si>
+    <t>Route Name</t>
+  </si>
+  <si>
+    <t>P1001380496</t>
+  </si>
+  <si>
+    <t>Amit Kadtan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -57,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,14 +353,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,18 +743,573 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64544C8D-F492-4A3C-91E6-D7886F11C0BB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC8A147-90D9-4E04-A66B-3D99799900AE}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9654862012</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1">
+        <v>441611</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10012000000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:aniket.jadhav@heerasoftware.com" display="mailto:aniket.jadhav@heerasoftware.com" xr:uid="{23590D03-93BB-41E7-BD35-0E9C4E015825}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64544C8D-F492-4A3C-91E6-D7886F11C0BB}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F6A36E-6FE1-4342-A759-9C792F096782}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="7">
+        <v>411009</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7">
+        <v>9667774565</v>
+      </c>
+      <c r="G2" s="11">
+        <v>757567567567</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="11">
+        <v>897979879879879</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="7">
+        <v>100</v>
+      </c>
+      <c r="N2" s="7">
+        <v>70</v>
+      </c>
+      <c r="O2" s="7">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{DDFF0FD4-555C-4429-9AFC-D4E84835F998}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909E620E-9E59-486E-9771-017302C48C14}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="7">
+        <v>9667774565</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5F319C3B-F169-46F6-8CFF-7054F8D65BFE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E21A26D-DB81-4E85-A562-A8AB1FB3FABD}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4">
+        <v>411041</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="4">
+        <v>9865470215</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6">
+        <v>34186</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="4">
+        <v>350</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="4">
+        <v>678987678987689</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="4">
+        <v>234567890987654</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" tooltip="mailto:aniket.jadhav@heerasoftware.com" display="mailto:aniket.jadhav@heerasoftware.com" xr:uid="{4C4C8ACE-BA60-4234-B3B0-41F607E9EA33}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF86D4CF-74CB-4177-89A3-EDE059EEA1EF}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4">
+        <v>9865124780</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="4">
+        <v>411041</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" tooltip="mailto:aniket.jadhav@heerasoftware.com" display="mailto:aniket.jadhav@heerasoftware.com" xr:uid="{AC4388A9-669A-4B53-B85D-6721AB431B7D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D5F150-07FA-494D-9F76-1F8D7F8CE447}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4">
+        <v>9657841203</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="4">
+        <v>412012</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="4">
+        <v>10012022001234</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -3,26 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DB0CD4-18D4-49F9-BCB1-33DBA5BC8F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E82BEB-6B02-412E-A0F5-BDEE1C1D3642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Distributor_Add" sheetId="3" r:id="rId2"/>
     <sheet name="Route_Add" sheetId="2" r:id="rId3"/>
     <sheet name="Salesman_Add" sheetId="4" r:id="rId4"/>
-    <sheet name="User_Master_ADD" sheetId="5" r:id="rId5"/>
-    <sheet name="Retailer_Add" sheetId="6" r:id="rId6"/>
-    <sheet name="Vendor_Add" sheetId="7" r:id="rId7"/>
-    <sheet name="Depot_Add" sheetId="8" r:id="rId8"/>
+    <sheet name="Media_Upload" sheetId="9" r:id="rId5"/>
+    <sheet name="User_Master_ADD" sheetId="5" r:id="rId6"/>
+    <sheet name="Retailer_Add" sheetId="6" r:id="rId7"/>
+    <sheet name="Vendor_Add" sheetId="7" r:id="rId8"/>
+    <sheet name="Depot_Add" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
   <si>
     <t>Username</t>
   </si>
@@ -307,6 +308,18 @@
   </si>
   <si>
     <t>Amit Kadtan</t>
+  </si>
+  <si>
+    <t>Media Title</t>
+  </si>
+  <si>
+    <t>Vande Bharat</t>
+  </si>
+  <si>
+    <t>Discription</t>
+  </si>
+  <si>
+    <t>Pune to Nagpur Train</t>
   </si>
 </sst>
 </file>
@@ -861,7 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F6A36E-6FE1-4342-A759-9C792F096782}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -986,6 +999,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2817910E-FC59-40A5-BF1A-AAA08E3FE4CE}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909E620E-9E59-486E-9771-017302C48C14}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1037,7 +1085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E21A26D-DB81-4E85-A562-A8AB1FB3FABD}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -1155,7 +1203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF86D4CF-74CB-4177-89A3-EDE059EEA1EF}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1231,7 +1279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D5F150-07FA-494D-9F76-1F8D7F8CE447}">
   <dimension ref="A1:K2"/>
   <sheetViews>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB6749A-FDDF-4A17-A446-E66DDBD74841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA13C8DD-9E20-4401-846B-564F8B639BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7785" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="98">
   <si>
     <t>Username</t>
   </si>
@@ -247,9 +247,6 @@
     <t>roshan.zambare@heerasoftware.com</t>
   </si>
   <si>
-    <t>Employee Code/UserId</t>
-  </si>
-  <si>
     <t>Salesman Name</t>
   </si>
   <si>
@@ -311,6 +308,15 @@
   </si>
   <si>
     <t>Raj Thakur</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>Employee Code</t>
+  </si>
+  <si>
+    <t>SM101</t>
   </si>
 </sst>
 </file>
@@ -1194,128 +1200,135 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7">
+        <v>411009</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="7">
+        <v>9667774565</v>
+      </c>
+      <c r="H2" s="9">
+        <v>757567567567</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="7">
-        <v>411009</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="7">
-        <v>9667774565</v>
-      </c>
-      <c r="G2" s="9">
-        <v>757567567567</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="10">
+        <v>897979879879879</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="10">
-        <v>897979879879879</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <v>100</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="7">
         <v>70</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1378,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1389,12 +1402,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA13C8DD-9E20-4401-846B-564F8B639BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB6749A-FDDF-4A17-A446-E66DDBD74841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7785" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
   <si>
     <t>Username</t>
   </si>
@@ -247,6 +247,9 @@
     <t>roshan.zambare@heerasoftware.com</t>
   </si>
   <si>
+    <t>Employee Code/UserId</t>
+  </si>
+  <si>
     <t>Salesman Name</t>
   </si>
   <si>
@@ -308,15 +311,6 @@
   </si>
   <si>
     <t>Raj Thakur</t>
-  </si>
-  <si>
-    <t>UserId</t>
-  </si>
-  <si>
-    <t>Employee Code</t>
-  </si>
-  <si>
-    <t>SM101</t>
   </si>
 </sst>
 </file>
@@ -1200,135 +1194,128 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>96</v>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="B2" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="7">
+        <v>411009</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="7">
+        <v>9667774565</v>
+      </c>
+      <c r="G2" s="9">
+        <v>757567567567</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="7">
-        <v>411009</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="7">
-        <v>9667774565</v>
-      </c>
-      <c r="H2" s="9">
-        <v>757567567567</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="10">
+      <c r="J2" s="10">
         <v>897979879879879</v>
       </c>
+      <c r="K2" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="L2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="M2" s="7">
+        <v>100</v>
       </c>
       <c r="N2" s="7">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O2" s="7">
-        <v>70</v>
-      </c>
-      <c r="P2" s="7">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1391,7 +1378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1402,12 +1389,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB6749A-FDDF-4A17-A446-E66DDBD74841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7785" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5112" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +18,12 @@
     <sheet name="Sales_Hierarchy_Add" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="D1:N15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
   <si>
     <t>Username</t>
   </si>
@@ -311,12 +311,15 @@
   </si>
   <si>
     <t>Raj Thakur</t>
+  </si>
+  <si>
+    <t>Expiry date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -345,7 +348,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -368,12 +371,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -403,6 +417,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,9 +440,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -462,9 +480,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,7 +517,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,7 +552,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -707,20 +725,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,7 +749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,27 +766,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -800,10 +820,16 @@
         <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -834,46 +860,52 @@
       <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="4">
         <v>10012022001234</v>
+      </c>
+      <c r="M2" s="12">
+        <v>46317</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -923,7 +955,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -975,7 +1007,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -983,24 +1015,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -1029,7 +1061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -1060,36 +1092,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1124,7 +1156,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1165,24 +1197,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
@@ -1193,33 +1225,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>74</v>
       </c>
@@ -1266,7 +1298,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>88</v>
       </c>
@@ -1315,7 +1347,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1323,22 +1355,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -1352,7 +1384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -1368,31 +1400,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAEA6B9-25B8-4684-8FE5-CAE6E8E94672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5112" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,14 +17,14 @@
     <sheet name="Salesman_Add" sheetId="7" r:id="rId7"/>
     <sheet name="User_Master_Add" sheetId="8" r:id="rId8"/>
     <sheet name="Sales_Hierarchy_Add" sheetId="9" r:id="rId9"/>
+    <sheet name="Scheme_Add" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="D1:N15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
   <si>
     <t>Username</t>
   </si>
@@ -314,12 +315,42 @@
   </si>
   <si>
     <t>Expiry date</t>
+  </si>
+  <si>
+    <t>AURACAST 102 Scheme1</t>
+  </si>
+  <si>
+    <t>Scheme Name</t>
+  </si>
+  <si>
+    <t>Scheme Short Name</t>
+  </si>
+  <si>
+    <t>Scheme Description</t>
+  </si>
+  <si>
+    <t>test scheme description Scheme descrptions</t>
+  </si>
+  <si>
+    <t>test scheme description</t>
+  </si>
+  <si>
+    <t>Activity Code</t>
+  </si>
+  <si>
+    <t>SM001</t>
+  </si>
+  <si>
+    <t>Apply in #No of Bills</t>
+  </si>
+  <si>
+    <t>No of Bills Per Day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -387,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -417,10 +448,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -440,9 +474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -480,9 +514,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -517,7 +551,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -552,7 +586,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -725,20 +759,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,6 +792,64 @@
       </c>
       <c r="C2" s="1">
         <v>568978</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4AB21-1206-4ED5-B053-1C76FBAA2CC5}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="5" width="40.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -766,29 +858,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -829,7 +921,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -872,40 +964,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -955,7 +1047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1007,7 +1099,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1015,24 +1107,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -1061,7 +1153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -1092,36 +1184,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1156,7 +1248,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1197,24 +1289,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
@@ -1225,33 +1317,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="23.44140625" customWidth="1"/>
-    <col min="15" max="15" width="20.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>74</v>
       </c>
@@ -1298,7 +1390,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>88</v>
       </c>
@@ -1347,7 +1439,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
+    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1355,22 +1447,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -1384,7 +1476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -1400,31 +1492,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
+    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAEA6B9-25B8-4684-8FE5-CAE6E8E94672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="10176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="123">
   <si>
     <t>Username</t>
   </si>
@@ -95,9 +94,6 @@
     <t>narhe</t>
   </si>
   <si>
-    <t>POYTF5487K</t>
-  </si>
-  <si>
     <t>Retailer Firm Name</t>
   </si>
   <si>
@@ -345,16 +341,67 @@
   </si>
   <si>
     <t>No of Bills Per Day</t>
+  </si>
+  <si>
+    <t>BQAPH5428U</t>
+  </si>
+  <si>
+    <t>Godown Address Name</t>
+  </si>
+  <si>
+    <t>Godown Address</t>
+  </si>
+  <si>
+    <t>Godown PinCode</t>
+  </si>
+  <si>
+    <t>Ankit shipment yard</t>
+  </si>
+  <si>
+    <t>Ring Road Thane</t>
+  </si>
+  <si>
+    <t>SE5001</t>
+  </si>
+  <si>
+    <t>27ABCDE1234F1Z5</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>ZSM</t>
+  </si>
+  <si>
+    <t>RSM</t>
+  </si>
+  <si>
+    <t>ZSM5001</t>
+  </si>
+  <si>
+    <t>us050</t>
+  </si>
+  <si>
+    <t>HR11</t>
+  </si>
+  <si>
+    <t>HO(HR)</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Logins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,16 +417,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -402,23 +469,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -448,13 +504,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -474,9 +539,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -514,9 +579,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,7 +616,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,7 +651,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -759,97 +824,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>568978</v>
       </c>
+      <c r="E2" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4AB21-1206-4ED5-B053-1C76FBAA2CC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="5" width="40.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="5" width="40.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="35.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="13" t="s">
-        <v>104</v>
+      <c r="F2" s="11" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -858,29 +983,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="24.5546875" customWidth="1"/>
+    <col min="15" max="15" width="25.88671875" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -912,16 +1040,25 @@
         <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -950,112 +1087,132 @@
         <v>441611</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="L2" s="4">
         <v>10012022001234</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="5">
         <v>46317</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" s="2">
+        <v>441612</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" customWidth="1"/>
+    <col min="17" max="18" width="23.109375" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1064,7 +1221,7 @@
         <v>411041</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
         <v>9865470215</v>
@@ -1076,13 +1233,13 @@
         <v>34097</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2">
         <v>350</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>43</v>
+      <c r="L2" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="M2" s="4">
         <v>678987678987689</v>
@@ -1094,12 +1251,21 @@
         <v>234567890987654</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="S2" s="2">
+        <v>441612</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1107,41 +1273,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>10</v>
@@ -1153,15 +1319,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>19</v>
@@ -1170,13 +1336,13 @@
         <v>9865124780</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I2" s="2">
         <v>411041</v>
@@ -1184,53 +1350,53 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>10</v>
@@ -1239,27 +1405,27 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -1268,13 +1434,13 @@
         <v>9657841203</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2">
         <v>412012</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="4">
         <v>10012022001234</v>
@@ -1289,26 +1455,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1317,94 +1483,94 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="D2" s="7">
         <v>411009</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="7">
         <v>9667774565</v>
@@ -1413,19 +1579,19 @@
         <v>757567567567</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J2" s="10">
         <v>897979879879879</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M2" s="7">
         <v>100</v>
@@ -1439,7 +1605,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1447,44 +1613,44 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="D2" s="7">
         <v>9667774565</v>
@@ -1492,33 +1658,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAEA6B9-25B8-4684-8FE5-CAE6E8E94672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CA1A09-A5E1-43D8-BEAD-7F849FBC63B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>Username</t>
   </si>
@@ -329,9 +329,6 @@
     <t>Scheme Description</t>
   </si>
   <si>
-    <t>test scheme description Scheme descrptions</t>
-  </si>
-  <si>
     <t>test scheme description</t>
   </si>
   <si>
@@ -345,6 +342,37 @@
   </si>
   <si>
     <t>No of Bills Per Day</t>
+  </si>
+  <si>
+    <t>From MRP</t>
+  </si>
+  <si>
+    <t>TO MRP</t>
+  </si>
+  <si>
+    <t>test scheme description Scheme description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27ABCDE1234F1Z5
+ </t>
+  </si>
+  <si>
+    <t>Godown Address Name</t>
+  </si>
+  <si>
+    <t>Godown Address</t>
+  </si>
+  <si>
+    <t>Godown PinCode</t>
+  </si>
+  <si>
+    <t>Ankit shipment yard</t>
+  </si>
+  <si>
+    <t>Ring Road Thane</t>
+  </si>
+  <si>
+    <t>27ABCDE1234F1Z5</t>
   </si>
 </sst>
 </file>
@@ -379,7 +407,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -400,17 +428,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -448,13 +465,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -801,10 +818,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4AB21-1206-4ED5-B053-1C76FBAA2CC5}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,11 +829,11 @@
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="5" width="40.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+    <col min="7" max="8" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>98</v>
       </c>
@@ -827,29 +844,41 @@
         <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="13" t="s">
-        <v>104</v>
+      <c r="F2" s="1">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1">
+        <v>500</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -859,10 +888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="N1" sqref="N1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,9 +907,12 @@
     <col min="11" max="11" width="17.140625" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="18" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -917,11 +949,20 @@
       <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -953,13 +994,22 @@
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="L2" s="4">
         <v>10012022001234</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="13">
         <v>46317</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="12">
+        <v>441612</v>
       </c>
     </row>
   </sheetData>
@@ -972,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +1047,7 @@
     <col min="16" max="16" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1046,8 +1096,17 @@
       <c r="P1" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1081,8 +1140,8 @@
       <c r="K2" s="2">
         <v>350</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>43</v>
+      <c r="L2" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="M2" s="4">
         <v>678987678987689</v>
@@ -1095,6 +1154,15 @@
       </c>
       <c r="P2" s="6" t="s">
         <v>44</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" s="12">
+        <v>441612</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B16326-6731-4416-BABD-B13740153D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA91329-7040-416F-A279-9D03BBD16755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="120">
   <si>
     <t>Username</t>
   </si>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t>Expiry date</t>
-  </si>
-  <si>
-    <t>AURACAST 102 Scheme1</t>
   </si>
   <si>
     <t>Scheme Name</t>
@@ -373,6 +370,21 @@
   </si>
   <si>
     <t>27ABCDE1234F1Z5</t>
+  </si>
+  <si>
+    <t>AURACAST 102 Scheme3</t>
+  </si>
+  <si>
+    <t>CAP on Discount</t>
+  </si>
+  <si>
+    <t>On QTY Value</t>
+  </si>
+  <si>
+    <t>Flat Discount</t>
+  </si>
+  <si>
+    <t>&amp;nbsp;</t>
   </si>
 </sst>
 </file>
@@ -435,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -472,6 +484,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -818,10 +834,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4AB21-1206-4ED5-B053-1C76FBAA2CC5}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,43 +847,55 @@
     <col min="3" max="5" width="40.5703125" customWidth="1"/>
     <col min="6" max="6" width="35.85546875" customWidth="1"/>
     <col min="7" max="8" width="33.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -878,7 +906,16 @@
         <v>500</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="I2" s="1">
+        <v>100</v>
+      </c>
+      <c r="J2" s="1">
+        <v>100</v>
+      </c>
+      <c r="K2" s="15">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -953,13 +990,13 @@
         <v>96</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -994,7 +1031,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L2" s="4">
         <v>10012022001234</v>
@@ -1003,10 +1040,10 @@
         <v>46317</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="P2" s="12">
         <v>441612</v>
@@ -1024,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
@@ -1097,13 +1134,13 @@
         <v>37</v>
       </c>
       <c r="Q1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -1141,7 +1178,7 @@
         <v>350</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M2" s="4">
         <v>678987678987689</v>
@@ -1156,10 +1193,10 @@
         <v>44</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="S2" s="12">
         <v>441612</v>
@@ -1358,25 +1395,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B16326-6731-4416-BABD-B13740153D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,10 +352,6 @@
     <t>test scheme description Scheme description</t>
   </si>
   <si>
-    <t xml:space="preserve">27ABCDE1234F1Z5
- </t>
-  </si>
-  <si>
     <t>Godown Address Name</t>
   </si>
   <si>
@@ -373,12 +368,15 @@
   </si>
   <si>
     <t>27ABCDE1234F1Z5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27ABCDE1234F1Z5 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -491,9 +489,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -531,9 +529,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,7 +566,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,7 +601,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -776,20 +774,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,7 +798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -817,23 +815,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4AB21-1206-4ED5-B053-1C76FBAA2CC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="5" width="40.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
-    <col min="7" max="8" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="5" width="40.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.88671875" customWidth="1"/>
+    <col min="7" max="8" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>98</v>
       </c>
@@ -859,7 +857,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -887,32 +885,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="18" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1"/>
+    <col min="16" max="18" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -953,16 +951,16 @@
         <v>96</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -994,7 +992,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L2" s="4">
         <v>10012022001234</v>
@@ -1003,10 +1001,10 @@
         <v>46317</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="P2" s="12">
         <v>441612</v>
@@ -1014,40 +1012,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" customWidth="1"/>
+    <col min="17" max="17" width="27.88671875" customWidth="1"/>
+    <col min="18" max="18" width="31" customWidth="1"/>
+    <col min="19" max="19" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1096,17 +1097,17 @@
       <c r="P1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>350</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M2" s="4">
         <v>678987678987689</v>
@@ -1155,19 +1156,19 @@
       <c r="P2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S2" s="12">
+      <c r="S2" s="7">
         <v>441612</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1175,24 +1176,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -1237,8 +1238,8 @@
       <c r="E2" s="2">
         <v>9865124780</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>43</v>
+      <c r="F2" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>54</v>
@@ -1252,36 +1253,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1357,24 +1358,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
@@ -1385,33 +1386,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>74</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>88</v>
       </c>
@@ -1507,7 +1508,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1515,22 +1516,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -1544,7 +1545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -1560,31 +1561,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Distributor_Add" sheetId="2" r:id="rId2"/>
-    <sheet name="Retailer_Add" sheetId="3" r:id="rId3"/>
-    <sheet name="Vendor_Add" sheetId="4" r:id="rId4"/>
-    <sheet name="Depot_Add" sheetId="5" r:id="rId5"/>
-    <sheet name="Route_Add" sheetId="6" r:id="rId6"/>
-    <sheet name="Salesman_Add" sheetId="7" r:id="rId7"/>
-    <sheet name="User_Master_Add" sheetId="8" r:id="rId8"/>
-    <sheet name="Sales_Hierarchy_Add" sheetId="9" r:id="rId9"/>
-    <sheet name="Scheme_Add" sheetId="10" r:id="rId10"/>
+    <sheet name="DECD_Request_Add" sheetId="11" r:id="rId2"/>
+    <sheet name="Distributor_Add" sheetId="2" r:id="rId3"/>
+    <sheet name="Retailer_Add" sheetId="3" r:id="rId4"/>
+    <sheet name="Vendor_Add" sheetId="4" r:id="rId5"/>
+    <sheet name="Depot_Add" sheetId="5" r:id="rId6"/>
+    <sheet name="Route_Add" sheetId="6" r:id="rId7"/>
+    <sheet name="Salesman_Add" sheetId="7" r:id="rId8"/>
+    <sheet name="User_Master_Add" sheetId="8" r:id="rId9"/>
+    <sheet name="Sales_Hierarchy_Add" sheetId="9" r:id="rId10"/>
+    <sheet name="Scheme_Add" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="137">
   <si>
     <t>Username</t>
   </si>
@@ -371,6 +372,69 @@
   </si>
   <si>
     <t xml:space="preserve">27ABCDE1234F1Z5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE5001 </t>
+  </si>
+  <si>
+    <t>ZSM5001</t>
+  </si>
+  <si>
+    <t>us050</t>
+  </si>
+  <si>
+    <t>ns150</t>
+  </si>
+  <si>
+    <t>NSM</t>
+  </si>
+  <si>
+    <t>ZSM</t>
+  </si>
+  <si>
+    <t>RSM</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>HRVP1</t>
+  </si>
+  <si>
+    <t>HO(VP)</t>
+  </si>
+  <si>
+    <t>HOS11</t>
+  </si>
+  <si>
+    <t>HR11</t>
+  </si>
+  <si>
+    <t>HO(Sales)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HO(HR) </t>
+  </si>
+  <si>
+    <t>Logins</t>
+  </si>
+  <si>
+    <t>ASM5001</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>Estimated Sales(Rupees)</t>
+  </si>
+  <si>
+    <t>DEDC %</t>
+  </si>
+  <si>
+    <t>Tentative Competition Sales</t>
   </si>
 </sst>
 </file>
@@ -397,12 +461,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -433,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -470,6 +546,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -775,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,7 +865,7 @@
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,8 +875,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -807,6 +888,121 @@
       </c>
       <c r="C2" s="1">
         <v>568978</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -815,6 +1011,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -885,6 +1109,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="B2" s="2">
+        <v>12120</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -1018,7 +1290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -1175,11 +1447,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
@@ -1259,7 +1531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1357,7 +1629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1385,12 +1657,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,7 +1787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1565,32 +1837,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA91329-7040-416F-A279-9D03BBD16755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBEAC6C-17D3-483F-96B1-9D7D391695C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
   <si>
     <t>Username</t>
   </si>
@@ -372,9 +372,6 @@
     <t>27ABCDE1234F1Z5</t>
   </si>
   <si>
-    <t>AURACAST 102 Scheme3</t>
-  </si>
-  <si>
     <t>CAP on Discount</t>
   </si>
   <si>
@@ -385,6 +382,21 @@
   </si>
   <si>
     <t>&amp;nbsp;</t>
+  </si>
+  <si>
+    <t>From Discount</t>
+  </si>
+  <si>
+    <t>To Discount</t>
+  </si>
+  <si>
+    <t>Coloumn no 11</t>
+  </si>
+  <si>
+    <t>Coloumn no 12</t>
+  </si>
+  <si>
+    <t>AURACAST 102 Scheme21</t>
   </si>
 </sst>
 </file>
@@ -447,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -484,10 +496,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -795,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -834,10 +842,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4AB21-1206-4ED5-B053-1C76FBAA2CC5}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,11 +856,11 @@
     <col min="6" max="6" width="35.85546875" customWidth="1"/>
     <col min="7" max="8" width="33.5703125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="10" max="12" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>97</v>
       </c>
@@ -877,19 +885,25 @@
       <c r="H1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>100</v>
@@ -914,8 +928,22 @@
       <c r="J2" s="1">
         <v>100</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1397,7 +1425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1420,7 +1448,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBEAC6C-17D3-483F-96B1-9D7D391695C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F685BBC8-885A-4067-8905-E6B6863E056F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="130">
   <si>
     <t>Username</t>
   </si>
@@ -326,9 +326,6 @@
     <t>Scheme Description</t>
   </si>
   <si>
-    <t>test scheme description</t>
-  </si>
-  <si>
     <t>Activity Code</t>
   </si>
   <si>
@@ -345,9 +342,6 @@
   </si>
   <si>
     <t>TO MRP</t>
-  </si>
-  <si>
-    <t>test scheme description Scheme description</t>
   </si>
   <si>
     <t xml:space="preserve">27ABCDE1234F1Z5
@@ -396,7 +390,31 @@
     <t>Coloumn no 12</t>
   </si>
   <si>
-    <t>AURACAST 102 Scheme21</t>
+    <t>National Budget</t>
+  </si>
+  <si>
+    <t>Allocated Budget Per Distributor</t>
+  </si>
+  <si>
+    <t>Allocated Budget Per Retailer</t>
+  </si>
+  <si>
+    <t>Coloumn no 13</t>
+  </si>
+  <si>
+    <t>Coloumn no 14</t>
+  </si>
+  <si>
+    <t>Coloumn no 15</t>
+  </si>
+  <si>
+    <t>AURACAST 102 Scheme50</t>
+  </si>
+  <si>
+    <t>Test scheme description Scheme description</t>
+  </si>
+  <si>
+    <t>Test scheme description</t>
   </si>
 </sst>
 </file>
@@ -406,7 +424,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +436,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -842,10 +866,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4AB21-1206-4ED5-B053-1C76FBAA2CC5}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,9 +882,12 @@
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="12" width="22.7109375" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="39.5703125" customWidth="1"/>
+    <col min="16" max="16" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>97</v>
       </c>
@@ -871,48 +898,61 @@
         <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="2">
         <v>100</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
       <c r="F2" s="1">
         <v>100</v>
       </c>
@@ -920,7 +960,7 @@
         <v>500</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -937,16 +977,35 @@
       <c r="M2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O2" s="1">
+        <v>80000</v>
+      </c>
+      <c r="P2" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="N3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1018,13 +1077,13 @@
         <v>96</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -1059,7 +1118,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L2" s="4">
         <v>10012022001234</v>
@@ -1068,10 +1127,10 @@
         <v>46317</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P2" s="12">
         <v>441612</v>
@@ -1162,13 +1221,13 @@
         <v>37</v>
       </c>
       <c r="Q1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -1206,7 +1265,7 @@
         <v>350</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M2" s="4">
         <v>678987678987689</v>
@@ -1221,10 +1280,10 @@
         <v>44</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S2" s="12">
         <v>441612</v>
@@ -1448,7 +1507,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="138">
   <si>
     <t>Username</t>
   </si>
@@ -302,12 +302,6 @@
     <t>PQRSX6789L</t>
   </si>
   <si>
-    <t>SBIN0001234</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
     <t>Sales Hierarchy Name</t>
   </si>
   <si>
@@ -435,6 +429,15 @@
   </si>
   <si>
     <t>Tentative Competition Sales</t>
+  </si>
+  <si>
+    <t>SM1021</t>
+  </si>
+  <si>
+    <t>Ghatkopar Branch</t>
+  </si>
+  <si>
+    <t>ABHY0060001</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -536,9 +539,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -548,6 +548,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -875,8 +879,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>131</v>
+      <c r="E1" s="13" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -889,13 +893,13 @@
       <c r="C2" s="1">
         <v>568978</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>124</v>
+      <c r="E2" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -903,13 +907,13 @@
       <c r="C3" s="1">
         <v>568978</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>123</v>
+      <c r="E3" s="14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -917,13 +921,13 @@
       <c r="C4" s="1">
         <v>568978</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>121</v>
+      <c r="E4" s="14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -931,13 +935,13 @@
       <c r="C5" s="1">
         <v>568978</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>122</v>
+      <c r="E5" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -945,13 +949,13 @@
       <c r="C6" s="1">
         <v>568978</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>120</v>
+      <c r="E6" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -959,13 +963,13 @@
       <c r="C7" s="1">
         <v>568978</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>126</v>
+      <c r="E7" s="14" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -973,13 +977,13 @@
       <c r="C8" s="1">
         <v>568978</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>129</v>
+      <c r="E8" s="14" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
@@ -987,13 +991,13 @@
       <c r="C9" s="1">
         <v>568978</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>130</v>
+      <c r="E9" s="14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -1001,8 +1005,8 @@
       <c r="C10" s="1">
         <v>568978</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>133</v>
+      <c r="E10" s="14" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1025,12 +1029,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1057,39 +1061,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1100,7 +1104,7 @@
         <v>500</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1125,13 +1129,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>87</v>
@@ -1220,16 +1224,16 @@
         <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1264,21 +1268,21 @@
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L2" s="4">
         <v>10012022001234</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <v>46317</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="P2" s="12">
+      <c r="N2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" s="11">
         <v>441612</v>
       </c>
     </row>
@@ -1370,13 +1374,13 @@
         <v>37</v>
       </c>
       <c r="Q1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1413,8 +1417,8 @@
       <c r="K2" s="2">
         <v>350</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>115</v>
+      <c r="L2" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="M2" s="4">
         <v>678987678987689</v>
@@ -1429,10 +1433,10 @@
         <v>44</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S2" s="7">
         <v>441612</v>
@@ -1510,8 +1514,8 @@
       <c r="E2" s="2">
         <v>9865124780</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>115</v>
+      <c r="F2" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>54</v>
@@ -1659,128 +1663,134 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="23.44140625" customWidth="1"/>
-    <col min="15" max="15" width="20.88671875" customWidth="1"/>
+    <col min="1" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="7">
+      <c r="E2" s="7">
         <v>411009</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>9667774565</v>
       </c>
-      <c r="G2" s="9">
+      <c r="H2" s="9">
         <v>757567567567</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="10">
-        <v>897979879879879</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" s="7">
+      <c r="K2" s="15">
+        <v>12345678901234</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="7">
         <v>100</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="7">
         <v>70</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
+    <hyperlink ref="F2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="138">
   <si>
     <t>Username</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>Tentative Competition Sales</t>
+  </si>
+  <si>
+    <t>ankush.gharsele@heerasoftware.com</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -548,6 +551,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1112,7 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1449,17 +1455,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" customWidth="1"/>
@@ -1523,9 +1529,18 @@
         <v>411041</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D3" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3">
+        <v>9354621021</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC499F1F-5A06-46A8-AE71-B455C1D9DC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,17 +13,18 @@
     <sheet name="Vendor_Add" sheetId="4" r:id="rId4"/>
     <sheet name="Depot_Add" sheetId="5" r:id="rId5"/>
     <sheet name="Route_Add" sheetId="6" r:id="rId6"/>
-    <sheet name="Salesman_Add" sheetId="7" r:id="rId7"/>
-    <sheet name="User_Master_Add" sheetId="8" r:id="rId8"/>
-    <sheet name="Sales_Hierarchy_Add" sheetId="9" r:id="rId9"/>
-    <sheet name="Scheme_Add" sheetId="10" r:id="rId10"/>
+    <sheet name="DECD_Request_Add" sheetId="11" r:id="rId7"/>
+    <sheet name="Salesman_Add" sheetId="7" r:id="rId8"/>
+    <sheet name="User_Master_Add" sheetId="8" r:id="rId9"/>
+    <sheet name="Sales_Hierarchy_Add" sheetId="9" r:id="rId10"/>
+    <sheet name="Scheme_Add" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="149">
   <si>
     <t>Username</t>
   </si>
@@ -415,12 +415,69 @@
   </si>
   <si>
     <t>Test scheme description</t>
+  </si>
+  <si>
+    <t>Estimated Sales (Rupees)</t>
+  </si>
+  <si>
+    <t>DEDC %</t>
+  </si>
+  <si>
+    <t>Tentative Competitions Sales (Rupees)</t>
+  </si>
+  <si>
+    <t>SE5001</t>
+  </si>
+  <si>
+    <t>ZSM5001</t>
+  </si>
+  <si>
+    <t>us050</t>
+  </si>
+  <si>
+    <t>ns150</t>
+  </si>
+  <si>
+    <t>HRVP1</t>
+  </si>
+  <si>
+    <t>HOS11</t>
+  </si>
+  <si>
+    <t>HR11</t>
+  </si>
+  <si>
+    <t>Logins</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>ZSM</t>
+  </si>
+  <si>
+    <t>RSM</t>
+  </si>
+  <si>
+    <t>NSM</t>
+  </si>
+  <si>
+    <t>HOVP</t>
+  </si>
+  <si>
+    <t>HO (Sales_</t>
+  </si>
+  <si>
+    <t>HO (HR)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -447,12 +504,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -483,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -520,6 +589,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -539,9 +612,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -579,9 +652,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -616,7 +689,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -651,7 +724,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -824,20 +897,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,8 +921,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -857,6 +934,107 @@
       </c>
       <c r="C2" s="1">
         <v>568978</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -865,29 +1043,57 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4AB21-1206-4ED5-B053-1C76FBAA2CC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="5" width="40.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
-    <col min="7" max="8" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="5" width="40.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.88671875" customWidth="1"/>
+    <col min="7" max="8" width="33.5546875" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="39.5703125" customWidth="1"/>
-    <col min="16" max="16" width="37.85546875" customWidth="1"/>
+    <col min="10" max="12" width="22.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" customWidth="1"/>
+    <col min="15" max="15" width="39.5546875" customWidth="1"/>
+    <col min="16" max="16" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>97</v>
       </c>
@@ -937,7 +1143,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>127</v>
       </c>
@@ -987,7 +1193,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
         <v>119</v>
       </c>
@@ -1011,32 +1217,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:P2"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="18" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1"/>
+    <col min="16" max="18" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1292,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1138,40 +1344,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1230,7 +1436,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1291,7 +1497,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1299,24 +1505,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -1345,7 +1551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -1376,36 +1582,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1440,7 +1646,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1481,20 +1687,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
@@ -1502,7 +1708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
@@ -1516,33 +1722,82 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>200</v>
+      </c>
+      <c r="B2" s="2">
+        <v>250</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>74</v>
       </c>
@@ -1589,7 +1844,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>88</v>
       </c>
@@ -1638,30 +1893,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -1675,7 +1930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -1691,36 +1946,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC499F1F-5A06-46A8-AE71-B455C1D9DC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E36BDA7-FF3C-4C98-8584-13DFE578332A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="User_Master_Add" sheetId="8" r:id="rId8"/>
     <sheet name="Sales_Hierarchy_Add" sheetId="9" r:id="rId9"/>
     <sheet name="Scheme_Add" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -483,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -520,6 +521,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -868,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4AB21-1206-4ED5-B053-1C76FBAA2CC5}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,6 +1008,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A0DB46-D48A-427F-81F8-59CF249D80DE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1517,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,6 +1648,11 @@
       </c>
       <c r="O2" s="7">
         <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G3" s="14">
+        <v>757567567567</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9417352-B20F-4223-A0C8-84036AF0DF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +17,14 @@
     <sheet name="User_Master_Add" sheetId="8" r:id="rId8"/>
     <sheet name="Sales_Hierarchy_Add" sheetId="9" r:id="rId9"/>
     <sheet name="Scheme_Add" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
+    <sheet name="DECD_Request_Add" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="151">
   <si>
     <t>Username</t>
   </si>
@@ -416,16 +415,79 @@
   </si>
   <si>
     <t>Test scheme description</t>
+  </si>
+  <si>
+    <t>SE5001</t>
+  </si>
+  <si>
+    <t>ZSM5001</t>
+  </si>
+  <si>
+    <t>us050</t>
+  </si>
+  <si>
+    <t>RSM</t>
+  </si>
+  <si>
+    <t>ZSM</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ns150 </t>
+  </si>
+  <si>
+    <t>NSM</t>
+  </si>
+  <si>
+    <t>HRVP1</t>
+  </si>
+  <si>
+    <t>HO VP</t>
+  </si>
+  <si>
+    <t>HOS11</t>
+  </si>
+  <si>
+    <t>HO Sales</t>
+  </si>
+  <si>
+    <t>HR11</t>
+  </si>
+  <si>
+    <t>ASM5001</t>
+  </si>
+  <si>
+    <t>HO HR</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>Estimated Sales</t>
+  </si>
+  <si>
+    <t>Tentitive Competitions Sales (Rupees)</t>
+  </si>
+  <si>
+    <t>DEDC %</t>
+  </si>
+  <si>
+    <t>Company Conributions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,13 +509,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -484,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -522,6 +602,14 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -541,9 +629,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -581,9 +669,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,7 +706,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -653,7 +741,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -826,31 +914,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -859,6 +947,121 @@
       </c>
       <c r="C2" s="1">
         <v>568978</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -867,29 +1070,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4AB21-1206-4ED5-B053-1C76FBAA2CC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="5" width="40.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
-    <col min="7" max="8" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="5" width="40.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.88671875" customWidth="1"/>
+    <col min="7" max="8" width="33.5546875" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="39.5703125" customWidth="1"/>
-    <col min="16" max="16" width="37.85546875" customWidth="1"/>
+    <col min="10" max="12" width="22.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" customWidth="1"/>
+    <col min="15" max="15" width="39.5546875" customWidth="1"/>
+    <col min="16" max="16" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>97</v>
       </c>
@@ -939,7 +1142,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>127</v>
       </c>
@@ -989,7 +1192,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
         <v>119</v>
       </c>
@@ -1013,44 +1216,81 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A0DB46-D48A-427F-81F8-59CF249D80DE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="18" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1"/>
+    <col min="16" max="18" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1100,7 +1340,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1152,40 +1392,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1244,7 +1484,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1305,7 +1545,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1313,24 +1553,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -1359,7 +1599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -1390,36 +1630,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1454,7 +1694,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1495,20 +1735,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
@@ -1516,7 +1756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
@@ -1530,33 +1770,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>74</v>
       </c>
@@ -1603,7 +1843,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>88</v>
       </c>
@@ -1650,14 +1890,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G3" s="14">
         <v>757567567567</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1665,22 +1905,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -1694,7 +1934,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -1710,31 +1950,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,9 +233,6 @@
     <t>Route Name</t>
   </si>
   <si>
-    <t>Karve Nagar</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -478,6 +475,9 @@
   </si>
   <si>
     <t>Company Conributions</t>
+  </si>
+  <si>
+    <t>Nala Supara</t>
   </si>
 </sst>
 </file>
@@ -949,12 +949,12 @@
         <v>568978</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -963,12 +963,12 @@
         <v>568978</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -977,12 +977,12 @@
         <v>568978</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -991,12 +991,12 @@
         <v>568978</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1005,12 +1005,12 @@
         <v>568978</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -1019,12 +1019,12 @@
         <v>568978</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -1033,12 +1033,12 @@
         <v>568978</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
@@ -1047,12 +1047,12 @@
         <v>568978</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -1061,7 +1061,7 @@
         <v>568978</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1094,63 +1094,63 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
@@ -1165,7 +1165,7 @@
         <v>500</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -1194,19 +1194,19 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" t="s">
         <v>119</v>
       </c>
-      <c r="M3" t="s">
-        <v>120</v>
-      </c>
       <c r="N3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" t="s">
         <v>124</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>125</v>
-      </c>
-      <c r="P3" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1219,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1232,16 +1232,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>149</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1328,16 +1328,16 @@
         <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1372,7 +1372,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="4">
         <v>10012022001234</v>
@@ -1381,10 +1381,10 @@
         <v>46317</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="P2" s="12">
         <v>441612</v>
@@ -1475,13 +1475,13 @@
         <v>37</v>
       </c>
       <c r="Q1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1519,7 +1519,7 @@
         <v>350</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M2" s="4">
         <v>678987678987689</v>
@@ -1534,10 +1534,10 @@
         <v>44</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="S2" s="12">
         <v>441612</v>
@@ -1738,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1758,10 +1758,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1798,66 +1798,66 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="D2" s="7">
         <v>411009</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="7">
         <v>9667774565</v>
@@ -1866,19 +1866,19 @@
         <v>757567567567</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J2" s="10">
         <v>897979879879879</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M2" s="7">
         <v>100</v>
@@ -1925,7 +1925,7 @@
         <v>59</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>9</v>
@@ -1936,13 +1936,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="D2" s="7">
         <v>9667774565</v>
@@ -1971,12 +1971,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9417352-B20F-4223-A0C8-84036AF0DF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC02366-3F07-4D1C-B7EF-E10B0DCB7D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="131">
   <si>
     <t>Username</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>roshan.zambare@heerasoftware.com</t>
-  </si>
-  <si>
-    <t>Employee Code/UserId</t>
   </si>
   <si>
     <t>Salesman Name</t>
@@ -409,13 +406,19 @@
     <t>Coloumn no 15</t>
   </si>
   <si>
-    <t>AURACAST 102 Scheme50</t>
-  </si>
-  <si>
     <t>Test scheme description Scheme description</t>
   </si>
   <si>
     <t>Test scheme description</t>
+  </si>
+  <si>
+    <t>Employee Code/</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>AURACAST 102  ICE20</t>
   </si>
 </sst>
 </file>
@@ -829,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -870,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4AB21-1206-4ED5-B053-1C76FBAA2CC5}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,63 +894,63 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
@@ -962,7 +965,7 @@
         <v>500</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -991,19 +994,19 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" t="s">
         <v>119</v>
       </c>
-      <c r="M3" t="s">
-        <v>120</v>
-      </c>
       <c r="N3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" t="s">
         <v>124</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>125</v>
-      </c>
-      <c r="P3" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1088,16 +1091,16 @@
         <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -1132,7 +1135,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="4">
         <v>10012022001234</v>
@@ -1141,10 +1144,10 @@
         <v>46317</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="P2" s="12">
         <v>441612</v>
@@ -1235,13 +1238,13 @@
         <v>37</v>
       </c>
       <c r="Q1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -1279,7 +1282,7 @@
         <v>350</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M2" s="4">
         <v>678987678987689</v>
@@ -1294,10 +1297,10 @@
         <v>44</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="S2" s="12">
         <v>441612</v>
@@ -1400,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1521,7 +1524,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1531,133 +1534,139 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="1" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="7">
+        <v>1101</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7">
+        <v>411009</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="7">
+        <v>9667774565</v>
+      </c>
+      <c r="H2" s="9">
+        <v>757567567567</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="7">
-        <v>411009</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="7">
-        <v>9667774565</v>
-      </c>
-      <c r="G2" s="9">
-        <v>757567567567</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="10">
+        <v>897979879879879</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="10">
-        <v>897979879879879</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <v>100</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="7">
         <v>70</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G3" s="14">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H3" s="14">
         <v>757567567567</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1731,12 +1740,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -3,29 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B94DB2-A302-4DC8-A137-01CF6474BEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2BCCEB-5D7E-4B4D-8E3A-5FC0B9DE2673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2505" windowWidth="15375" windowHeight="7785" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Distributor_Add" sheetId="2" r:id="rId2"/>
-    <sheet name="Retailer_Add" sheetId="3" r:id="rId3"/>
-    <sheet name="Vendor_Add" sheetId="4" r:id="rId4"/>
-    <sheet name="Depot_Add" sheetId="5" r:id="rId5"/>
-    <sheet name="Route_Add" sheetId="6" r:id="rId6"/>
-    <sheet name="Salesman_Add" sheetId="7" r:id="rId7"/>
-    <sheet name="User_Master_Add" sheetId="8" r:id="rId8"/>
-    <sheet name="Sales_Hierarchy_Add" sheetId="9" r:id="rId9"/>
-    <sheet name="Scheme_Add" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
+    <sheet name="DECD_Request_Add" sheetId="12" r:id="rId2"/>
+    <sheet name="Distributor_Add" sheetId="2" r:id="rId3"/>
+    <sheet name="Retailer_Add" sheetId="3" r:id="rId4"/>
+    <sheet name="Vendor_Add" sheetId="4" r:id="rId5"/>
+    <sheet name="Depot_Add" sheetId="5" r:id="rId6"/>
+    <sheet name="Route_Add" sheetId="6" r:id="rId7"/>
+    <sheet name="Salesman_Add" sheetId="7" r:id="rId8"/>
+    <sheet name="User_Master_Add" sheetId="8" r:id="rId9"/>
+    <sheet name="Sales_Hierarchy_Add" sheetId="9" r:id="rId10"/>
+    <sheet name="Scheme_Add" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="152">
   <si>
     <t>Username</t>
   </si>
@@ -286,9 +287,6 @@
   </si>
   <si>
     <t>Company Contribution</t>
-  </si>
-  <si>
-    <t>P1001380495</t>
   </si>
   <si>
     <t>Mukesh SING</t>
@@ -418,7 +416,73 @@
     <t>UserId</t>
   </si>
   <si>
-    <t>AURACAST 102  ICE20</t>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>SE5001</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>ZSM5001</t>
+  </si>
+  <si>
+    <t>ZSM</t>
+  </si>
+  <si>
+    <t>us050</t>
+  </si>
+  <si>
+    <t>RSM</t>
+  </si>
+  <si>
+    <t>ns150</t>
+  </si>
+  <si>
+    <t>NSM</t>
+  </si>
+  <si>
+    <t>HRVP1</t>
+  </si>
+  <si>
+    <t>HO VP</t>
+  </si>
+  <si>
+    <t>HOS11</t>
+  </si>
+  <si>
+    <t>HO SALES</t>
+  </si>
+  <si>
+    <t>HR11</t>
+  </si>
+  <si>
+    <t>HO HR</t>
+  </si>
+  <si>
+    <t>ASM5001</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>Estimated Sales</t>
+  </si>
+  <si>
+    <t>Tentative Competition Sales TextBox</t>
+  </si>
+  <si>
+    <t>DEDC %</t>
+  </si>
+  <si>
+    <t>SM1105</t>
+  </si>
+  <si>
+    <t>P1001380495</t>
+  </si>
+  <si>
+    <t>AURACAST 102 Diwali</t>
   </si>
 </sst>
 </file>
@@ -487,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -525,6 +589,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -830,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,26 +909,152 @@
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="12">
         <v>568978</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12">
+        <v>568978</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12">
+        <v>568978</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12">
+        <v>568978</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12">
+        <v>568978</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12">
+        <v>568978</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12">
+        <v>568978</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12">
+        <v>568978</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12">
+        <v>568978</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -870,11 +1063,39 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4AB21-1206-4ED5-B053-1C76FBAA2CC5}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,63 +1115,63 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
@@ -965,7 +1186,7 @@
         <v>500</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -994,19 +1215,19 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" t="s">
         <v>118</v>
       </c>
-      <c r="M3" t="s">
-        <v>119</v>
-      </c>
       <c r="N3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" t="s">
         <v>123</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>124</v>
-      </c>
-      <c r="P3" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1015,7 +1236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A0DB46-D48A-427F-81F8-59CF249D80DE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1028,6 +1249,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588077E1-CFBA-4C8C-ABAA-6E126DE267D6}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="12">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -1091,16 +1361,16 @@
         <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -1135,7 +1405,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L2" s="4">
         <v>10012022001234</v>
@@ -1144,10 +1414,10 @@
         <v>46317</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="P2" s="12">
         <v>441612</v>
@@ -1161,7 +1431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -1238,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="Q1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -1282,7 +1552,7 @@
         <v>350</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M2" s="4">
         <v>678987678987689</v>
@@ -1297,10 +1567,10 @@
         <v>44</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="S2" s="12">
         <v>441612</v>
@@ -1315,7 +1585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1399,7 +1669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1497,7 +1767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1524,7 +1794,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +1802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
@@ -1561,10 +1831,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>74</v>
@@ -1611,16 +1881,16 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="7">
-        <v>1101</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="E2" s="7">
         <v>411009</v>
@@ -1635,19 +1905,19 @@
         <v>757567567567</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K2" s="10">
         <v>897979879879879</v>
       </c>
       <c r="L2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="N2" s="7">
         <v>100</v>
@@ -1673,7 +1943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1723,32 +1993,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B94DB2-A302-4DC8-A137-01CF6474BEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385B12EE-93E8-40A6-974E-3D3BDF138D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2505" windowWidth="15375" windowHeight="7785" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="148">
   <si>
     <t>Username</t>
   </si>
@@ -286,9 +286,6 @@
   </si>
   <si>
     <t>Company Contribution</t>
-  </si>
-  <si>
-    <t>P1001380495</t>
   </si>
   <si>
     <t>Mukesh SING</t>
@@ -418,7 +415,61 @@
     <t>UserId</t>
   </si>
   <si>
-    <t>AURACAST 102  ICE20</t>
+    <t>SM1105</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>SE5001</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>ZSM5001</t>
+  </si>
+  <si>
+    <t>ZSM</t>
+  </si>
+  <si>
+    <t>us050</t>
+  </si>
+  <si>
+    <t>RSM</t>
+  </si>
+  <si>
+    <t>ns150</t>
+  </si>
+  <si>
+    <t>NSM</t>
+  </si>
+  <si>
+    <t>HRVP1</t>
+  </si>
+  <si>
+    <t>HO VP</t>
+  </si>
+  <si>
+    <t>HOS11</t>
+  </si>
+  <si>
+    <t>HO SALES</t>
+  </si>
+  <si>
+    <t>HR11</t>
+  </si>
+  <si>
+    <t>HO HR</t>
+  </si>
+  <si>
+    <t>ASM5001</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>AURACAST 102  ICE Diwali 50</t>
   </si>
 </sst>
 </file>
@@ -487,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -525,6 +576,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -830,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,26 +896,152 @@
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="12">
         <v>568978</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12">
+        <v>568978</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12">
+        <v>568978</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12">
+        <v>568978</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12">
+        <v>568978</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12">
+        <v>568978</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12">
+        <v>568978</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12">
+        <v>568978</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12">
+        <v>568978</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +1054,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,63 +1074,63 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
@@ -965,7 +1145,7 @@
         <v>500</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -994,19 +1174,19 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" t="s">
         <v>118</v>
       </c>
-      <c r="M3" t="s">
-        <v>119</v>
-      </c>
       <c r="N3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" t="s">
         <v>123</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>124</v>
-      </c>
-      <c r="P3" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1091,16 +1271,16 @@
         <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -1135,7 +1315,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L2" s="4">
         <v>10012022001234</v>
@@ -1144,10 +1324,10 @@
         <v>46317</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="P2" s="12">
         <v>441612</v>
@@ -1238,13 +1418,13 @@
         <v>37</v>
       </c>
       <c r="Q1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -1282,7 +1462,7 @@
         <v>350</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M2" s="4">
         <v>678987678987689</v>
@@ -1297,10 +1477,10 @@
         <v>44</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="S2" s="12">
         <v>441612</v>
@@ -1502,7 +1682,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1704,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1717,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,10 +1741,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>74</v>
@@ -1611,16 +1791,16 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="7">
-        <v>1101</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="E2" s="7">
         <v>411009</v>
@@ -1635,19 +1815,19 @@
         <v>757567567567</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K2" s="10">
         <v>897979879879879</v>
       </c>
       <c r="L2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="N2" s="7">
         <v>100</v>
@@ -1740,12 +1920,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B94DB2-A302-4DC8-A137-01CF6474BEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2505" windowWidth="15375" windowHeight="7785" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2508" yWindow="2508" windowWidth="15372" windowHeight="7788" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +17,14 @@
     <sheet name="User_Master_Add" sheetId="8" r:id="rId8"/>
     <sheet name="Sales_Hierarchy_Add" sheetId="9" r:id="rId9"/>
     <sheet name="Scheme_Add" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
+    <sheet name="DECD_Request_Add" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="151">
   <si>
     <t>Username</t>
   </si>
@@ -419,12 +418,72 @@
   </si>
   <si>
     <t>AURACAST 102  ICE20</t>
+  </si>
+  <si>
+    <t>SE5001</t>
+  </si>
+  <si>
+    <t>ZSM5001</t>
+  </si>
+  <si>
+    <t>us050</t>
+  </si>
+  <si>
+    <t>ns150</t>
+  </si>
+  <si>
+    <t>HRVP1</t>
+  </si>
+  <si>
+    <t>HOS11</t>
+  </si>
+  <si>
+    <t>HR11</t>
+  </si>
+  <si>
+    <t>ASM5001</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>ZSM</t>
+  </si>
+  <si>
+    <t>RSM</t>
+  </si>
+  <si>
+    <t>NSM</t>
+  </si>
+  <si>
+    <t>HO VP</t>
+  </si>
+  <si>
+    <t>HO HR</t>
+  </si>
+  <si>
+    <t>HO SALES</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>Estimated Sales</t>
+  </si>
+  <si>
+    <t>Tentative Competition Sales TextBox</t>
+  </si>
+  <si>
+    <t>DEDC %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -451,12 +510,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -487,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -525,6 +590,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -544,9 +610,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -584,9 +650,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,7 +687,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -656,7 +722,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -829,31 +895,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,6 +928,121 @@
       </c>
       <c r="C2" s="1">
         <v>568978</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>568978</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -870,29 +1051,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4AB21-1206-4ED5-B053-1C76FBAA2CC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="5" width="40.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
-    <col min="7" max="8" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="5" width="40.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.88671875" customWidth="1"/>
+    <col min="7" max="8" width="33.5546875" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="39.5703125" customWidth="1"/>
-    <col min="16" max="16" width="37.85546875" customWidth="1"/>
+    <col min="10" max="12" width="22.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" customWidth="1"/>
+    <col min="15" max="15" width="39.5546875" customWidth="1"/>
+    <col min="16" max="16" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>96</v>
       </c>
@@ -942,7 +1123,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>130</v>
       </c>
@@ -992,7 +1173,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
         <v>118</v>
       </c>
@@ -1016,44 +1197,80 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A0DB46-D48A-427F-81F8-59CF249D80DE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000000</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="18" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1"/>
+    <col min="16" max="18" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1320,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1155,40 +1372,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1247,7 +1464,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1308,7 +1525,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1316,24 +1533,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -1362,7 +1579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -1393,36 +1610,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1457,7 +1674,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1498,20 +1715,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
@@ -1519,7 +1736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
@@ -1533,33 +1750,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>128</v>
       </c>
@@ -1609,7 +1826,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>87</v>
       </c>
@@ -1659,14 +1876,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H3" s="14">
         <v>757567567567</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1674,22 +1891,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -1703,7 +1920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -1719,31 +1936,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>94</v>
       </c>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385B12EE-93E8-40A6-974E-3D3BDF138D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A866801-47FC-43A7-ACFA-84B7518AE953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,21 +427,12 @@
     <t>SE</t>
   </si>
   <si>
-    <t>ZSM5001</t>
-  </si>
-  <si>
     <t>ZSM</t>
   </si>
   <si>
-    <t>us050</t>
-  </si>
-  <si>
     <t>RSM</t>
   </si>
   <si>
-    <t>ns150</t>
-  </si>
-  <si>
     <t>NSM</t>
   </si>
   <si>
@@ -470,6 +461,15 @@
   </si>
   <si>
     <t>AURACAST 102  ICE Diwali 50</t>
+  </si>
+  <si>
+    <t>NSM11</t>
+  </si>
+  <si>
+    <t>RSM11</t>
+  </si>
+  <si>
+    <t>ZSMC11</t>
   </si>
 </sst>
 </file>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +920,7 @@
         <v>568978</v>
       </c>
       <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>130</v>
       </c>
     </row>
@@ -935,13 +935,13 @@
         <v>568978</v>
       </c>
       <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>4</v>
@@ -950,13 +950,13 @@
         <v>568978</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
-        <v>134</v>
+      <c r="E4" s="12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>4</v>
@@ -965,13 +965,13 @@
         <v>568978</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
-        <v>136</v>
+      <c r="E5" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>4</v>
@@ -980,13 +980,13 @@
         <v>568978</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
-        <v>138</v>
+      <c r="E6" s="12" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>4</v>
@@ -995,13 +995,13 @@
         <v>568978</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
-        <v>140</v>
+      <c r="E7" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>4</v>
@@ -1010,13 +1010,13 @@
         <v>568978</v>
       </c>
       <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
-        <v>142</v>
+      <c r="E8" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>4</v>
@@ -1025,13 +1025,13 @@
         <v>568978</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
-        <v>144</v>
+      <c r="E9" s="12" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>4</v>
@@ -1040,8 +1040,8 @@
         <v>568978</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>146</v>
+      <c r="E10" s="12" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4AB21-1206-4ED5-B053-1C76FBAA2CC5}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>126</v>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29484C45-1870-4090-832A-F822271DB9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +17,14 @@
     <sheet name="User_Master_Add" sheetId="8" r:id="rId8"/>
     <sheet name="Sales_Hierarchy_Add" sheetId="9" r:id="rId9"/>
     <sheet name="Scheme_Add" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
+    <sheet name="DECD_Request_Add" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="151">
   <si>
     <t>Username</t>
   </si>
@@ -470,16 +469,25 @@
   </si>
   <si>
     <t>ZSMC11</t>
+  </si>
+  <si>
+    <t>Etimated Sales</t>
+  </si>
+  <si>
+    <t>Tentative Competition Sales</t>
+  </si>
+  <si>
+    <t>DEDC %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +508,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -538,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -579,6 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -598,9 +613,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -638,9 +653,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,7 +690,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -710,7 +725,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -883,20 +898,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -909,7 +924,7 @@
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -924,7 +939,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>131</v>
       </c>
@@ -939,7 +954,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>147</v>
       </c>
@@ -954,7 +969,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>146</v>
       </c>
@@ -969,7 +984,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>145</v>
       </c>
@@ -984,7 +999,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>136</v>
       </c>
@@ -999,7 +1014,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>138</v>
       </c>
@@ -1014,7 +1029,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>140</v>
       </c>
@@ -1029,7 +1044,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>142</v>
       </c>
@@ -1050,29 +1065,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4AB21-1206-4ED5-B053-1C76FBAA2CC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="5" width="40.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
-    <col min="7" max="8" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="5" width="40.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.88671875" customWidth="1"/>
+    <col min="7" max="8" width="33.5546875" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="39.5703125" customWidth="1"/>
-    <col min="16" max="16" width="37.85546875" customWidth="1"/>
+    <col min="10" max="12" width="22.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" customWidth="1"/>
+    <col min="15" max="15" width="39.5546875" customWidth="1"/>
+    <col min="16" max="16" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>95</v>
       </c>
@@ -1122,7 +1137,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>144</v>
       </c>
@@ -1172,7 +1187,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
         <v>117</v>
       </c>
@@ -1196,44 +1211,81 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A0DB46-D48A-427F-81F8-59CF249D80DE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="18" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1"/>
+    <col min="16" max="18" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1283,7 +1335,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1335,40 +1387,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1427,7 +1479,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1488,7 +1540,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1496,24 +1548,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -1542,7 +1594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -1573,36 +1625,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1637,7 +1689,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1678,20 +1730,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
@@ -1699,7 +1751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
@@ -1713,33 +1765,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>127</v>
       </c>
@@ -1789,7 +1841,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -1839,14 +1891,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H3" s="14">
         <v>757567567567</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1854,22 +1906,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -1883,7 +1935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -1899,31 +1951,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>93</v>
       </c>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="152">
   <si>
     <t>Username</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>DEDC %</t>
+  </si>
+  <si>
+    <t>Rajendra mukesh SING</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1768,14 +1771,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="38.88671875" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="39.6640625" customWidth="1"/>
@@ -1849,7 +1852,7 @@
         <v>129</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>88</v>
@@ -1861,7 +1864,7 @@
         <v>73</v>
       </c>
       <c r="G2" s="7">
-        <v>9667774565</v>
+        <v>9667774567</v>
       </c>
       <c r="H2" s="9">
         <v>757567567567</v>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="153">
   <si>
     <t>Username</t>
   </si>
@@ -287,19 +287,10 @@
     <t>Company Contribution</t>
   </si>
   <si>
-    <t>Mukesh SING</t>
-  </si>
-  <si>
     <t>SHOP NO. 12 GROUND FLOOR Gulab shilp</t>
   </si>
   <si>
     <t>PQRSX6789L</t>
-  </si>
-  <si>
-    <t>SBIN0001234</t>
-  </si>
-  <si>
-    <t>Pune</t>
   </si>
   <si>
     <t>Sales Hierarchy Name</t>
@@ -414,9 +405,6 @@
     <t>UserId</t>
   </si>
   <si>
-    <t>SM1105</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -435,9 +423,6 @@
     <t>NSM</t>
   </si>
   <si>
-    <t>HRVP1</t>
-  </si>
-  <si>
     <t>HO VP</t>
   </si>
   <si>
@@ -480,7 +465,25 @@
     <t>DEDC %</t>
   </si>
   <si>
-    <t>Rajendra mukesh SING</t>
+    <t>SM1106</t>
+  </si>
+  <si>
+    <t>P1001380412</t>
+  </si>
+  <si>
+    <t>ABHY0065108</t>
+  </si>
+  <si>
+    <t>Dhankawadi, Pune</t>
+  </si>
+  <si>
+    <t>Amit SING</t>
+  </si>
+  <si>
+    <t>Aniket Singh Thakur</t>
+  </si>
+  <si>
+    <t>anike.jadhav@heerasoftware.com</t>
   </si>
 </sst>
 </file>
@@ -905,7 +908,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,23 +918,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="12">
@@ -939,14 +942,14 @@
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="12">
@@ -954,14 +957,14 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="12">
@@ -969,14 +972,14 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="12">
@@ -984,14 +987,14 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="12">
@@ -999,14 +1002,14 @@
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="7">
+        <v>11025</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="12">
@@ -1014,14 +1017,14 @@
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="12">
@@ -1029,14 +1032,14 @@
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="12">
@@ -1044,14 +1047,14 @@
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="12">
@@ -1059,7 +1062,7 @@
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1092,63 +1095,63 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
@@ -1163,7 +1166,7 @@
         <v>500</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -1192,19 +1195,19 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1221,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,13 +1233,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>86</v>
@@ -1326,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1370,7 +1373,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L2" s="4">
         <v>10012022001234</v>
@@ -1379,10 +1382,10 @@
         <v>46317</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P2" s="12">
         <v>441612</v>
@@ -1473,13 +1476,13 @@
         <v>37</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1517,7 +1520,7 @@
         <v>350</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M2" s="4">
         <v>678987678987689</v>
@@ -1532,10 +1535,10 @@
         <v>44</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S2" s="12">
         <v>441612</v>
@@ -1759,7 +1762,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +1775,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1788,7 +1791,7 @@
     <col min="10" max="10" width="23.5546875" customWidth="1"/>
     <col min="11" max="11" width="17.88671875" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" customWidth="1"/>
     <col min="14" max="14" width="18.33203125" customWidth="1"/>
     <col min="15" max="15" width="23.44140625" customWidth="1"/>
     <col min="16" max="16" width="20.88671875" customWidth="1"/>
@@ -1796,10 +1799,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>74</v>
@@ -1846,43 +1849,43 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="7">
         <v>411009</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="G2" s="7">
-        <v>9667774567</v>
+        <v>9667784167</v>
       </c>
       <c r="H2" s="9">
         <v>757567567567</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K2" s="10">
         <v>897979879879879</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>91</v>
+      <c r="L2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="N2" s="7">
         <v>100</v>
@@ -1901,7 +1904,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1975,12 +1978,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="154">
   <si>
     <t>Username</t>
   </si>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>SHOP NO. 12 GROUND FLOOR Gulab shilp</t>
-  </si>
-  <si>
-    <t>PQRSX6789L</t>
   </si>
   <si>
     <t>Sales Hierarchy Name</t>
@@ -408,9 +405,6 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>SE5001</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
@@ -432,30 +426,15 @@
     <t>HO SALES</t>
   </si>
   <si>
-    <t>HR11</t>
-  </si>
-  <si>
     <t>HO HR</t>
   </si>
   <si>
-    <t>ASM5001</t>
-  </si>
-  <si>
     <t>ASM</t>
   </si>
   <si>
     <t>AURACAST 102  ICE Diwali 50</t>
   </si>
   <si>
-    <t>NSM11</t>
-  </si>
-  <si>
-    <t>RSM11</t>
-  </si>
-  <si>
-    <t>ZSMC11</t>
-  </si>
-  <si>
     <t>Etimated Sales</t>
   </si>
   <si>
@@ -465,25 +444,49 @@
     <t>DEDC %</t>
   </si>
   <si>
-    <t>SM1106</t>
-  </si>
-  <si>
-    <t>P1001380412</t>
-  </si>
-  <si>
     <t>ABHY0065108</t>
   </si>
   <si>
     <t>Dhankawadi, Pune</t>
   </si>
   <si>
-    <t>Amit SING</t>
-  </si>
-  <si>
-    <t>Aniket Singh Thakur</t>
-  </si>
-  <si>
-    <t>anike.jadhav@heerasoftware.com</t>
+    <t>PQRSX4789L</t>
+  </si>
+  <si>
+    <t>Ankush SING</t>
+  </si>
+  <si>
+    <t>asm2323</t>
+  </si>
+  <si>
+    <t>zsm3001</t>
+  </si>
+  <si>
+    <t>us050</t>
+  </si>
+  <si>
+    <t>ns150</t>
+  </si>
+  <si>
+    <t>hr123</t>
+  </si>
+  <si>
+    <t>HRVP11</t>
+  </si>
+  <si>
+    <t>se0123</t>
+  </si>
+  <si>
+    <t>SM21057</t>
+  </si>
+  <si>
+    <t>P1001386962</t>
+  </si>
+  <si>
+    <t>Ravi Singh Thakur</t>
+  </si>
+  <si>
+    <t>amit.thakur@heerasoftware.com</t>
   </si>
 </sst>
 </file>
@@ -908,7 +911,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,12 +945,12 @@
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>127</v>
+      <c r="A3" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
@@ -957,12 +960,12 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>142</v>
+      <c r="A4" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>4</v>
@@ -972,12 +975,12 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>141</v>
+      <c r="A5" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>4</v>
@@ -987,12 +990,12 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>140</v>
+      <c r="A6" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>4</v>
@@ -1002,12 +1005,12 @@
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>11025</v>
+      <c r="A7" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>4</v>
@@ -1017,12 +1020,12 @@
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>133</v>
+      <c r="A8" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>4</v>
@@ -1032,12 +1035,12 @@
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>135</v>
+      <c r="A9" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>4</v>
@@ -1047,12 +1050,12 @@
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>137</v>
+      <c r="A10" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -1062,7 +1065,7 @@
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1095,63 +1098,63 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
@@ -1166,7 +1169,7 @@
         <v>500</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -1195,19 +1198,19 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" t="s">
         <v>114</v>
       </c>
-      <c r="M3" t="s">
-        <v>115</v>
-      </c>
       <c r="N3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" t="s">
         <v>119</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>120</v>
-      </c>
-      <c r="P3" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1233,13 +1236,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>86</v>
@@ -1329,16 +1332,16 @@
         <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1373,7 +1376,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L2" s="4">
         <v>10012022001234</v>
@@ -1382,10 +1385,10 @@
         <v>46317</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="P2" s="12">
         <v>441612</v>
@@ -1476,13 +1479,13 @@
         <v>37</v>
       </c>
       <c r="Q1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1520,7 +1523,7 @@
         <v>350</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M2" s="4">
         <v>678987678987689</v>
@@ -1535,10 +1538,10 @@
         <v>44</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="S2" s="12">
         <v>441612</v>
@@ -1762,7 +1765,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1775,7 +1778,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,10 +1802,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>74</v>
@@ -1849,13 +1852,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>87</v>
@@ -1864,38 +1867,36 @@
         <v>411009</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G2" s="7">
-        <v>9667784167</v>
+        <v>9667780366</v>
       </c>
       <c r="H2" s="9">
-        <v>757567567567</v>
+        <v>757567567867</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K2" s="10">
-        <v>897979879879879</v>
+        <v>897979879849879</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N2" s="7">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="O2" s="7">
-        <v>70</v>
-      </c>
-      <c r="P2" s="7">
-        <v>30</v>
-      </c>
+        <v>7000</v>
+      </c>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H3" s="14">
@@ -1978,12 +1979,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_TestData/Excel_Havmor.xlsx
+++ b/Excel_TestData/Excel_Havmor.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2353D541-8A25-4F1A-A36C-1015CCB0E699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="163">
   <si>
     <t>Username</t>
   </si>
@@ -74,9 +75,6 @@
     <t>FSSAI Licence Number</t>
   </si>
   <si>
-    <t>DB5410</t>
-  </si>
-  <si>
     <t>Aditya</t>
   </si>
   <si>
@@ -161,9 +159,6 @@
     <t>ABHY0065107</t>
   </si>
   <si>
-    <t>G1001</t>
-  </si>
-  <si>
     <t>UserID</t>
   </si>
   <si>
@@ -182,12 +177,6 @@
     <t>GST No</t>
   </si>
   <si>
-    <t>VM1012</t>
-  </si>
-  <si>
-    <t>Yash Thakur</t>
-  </si>
-  <si>
     <t>Maya Nagar</t>
   </si>
   <si>
@@ -221,33 +210,15 @@
     <t>D51246</t>
   </si>
   <si>
-    <t>Aniket Enterprices</t>
-  </si>
-  <si>
-    <t>Aniket Thakur</t>
-  </si>
-  <si>
     <t>DM1012</t>
   </si>
   <si>
     <t>Route Name</t>
   </si>
   <si>
-    <t>Karve Nagar</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>P1001380496</t>
-  </si>
-  <si>
-    <t>Amit Kadtan</t>
-  </si>
-  <si>
-    <t>roshan.zambare@heerasoftware.com</t>
-  </si>
-  <si>
     <t>Salesman Name</t>
   </si>
   <si>
@@ -293,9 +264,6 @@
     <t>Sales Hierarchy Name</t>
   </si>
   <si>
-    <t>Raj Thakur</t>
-  </si>
-  <si>
     <t>Expiry date</t>
   </si>
   <si>
@@ -309,9 +277,6 @@
   </si>
   <si>
     <t>Activity Code</t>
-  </si>
-  <si>
-    <t>SM001</t>
   </si>
   <si>
     <t>Apply in #No of Bills</t>
@@ -357,9 +322,6 @@
     <t>Flat Discount</t>
   </si>
   <si>
-    <t>&amp;nbsp;</t>
-  </si>
-  <si>
     <t>From Discount</t>
   </si>
   <si>
@@ -432,9 +394,6 @@
     <t>ASM</t>
   </si>
   <si>
-    <t>AURACAST 102  ICE Diwali 50</t>
-  </si>
-  <si>
     <t>Etimated Sales</t>
   </si>
   <si>
@@ -477,22 +436,91 @@
     <t>se0123</t>
   </si>
   <si>
-    <t>SM21057</t>
-  </si>
-  <si>
     <t>P1001386962</t>
   </si>
   <si>
-    <t>Ravi Singh Thakur</t>
-  </si>
-  <si>
-    <t>amit.thakur@heerasoftware.com</t>
+    <t>SM21058</t>
+  </si>
+  <si>
+    <t>Pavan Singh Thakur</t>
+  </si>
+  <si>
+    <t>pavan.kumar@heera.com</t>
+  </si>
+  <si>
+    <t>Pavan Thakur</t>
+  </si>
+  <si>
+    <t>VM1013</t>
+  </si>
+  <si>
+    <t>G1102</t>
+  </si>
+  <si>
+    <t>DB5412</t>
+  </si>
+  <si>
+    <t>New Retailer Firm</t>
+  </si>
+  <si>
+    <t>G1103</t>
+  </si>
+  <si>
+    <t>kalyani Nagar</t>
+  </si>
+  <si>
+    <t>Once Enterprices</t>
+  </si>
+  <si>
+    <t>Rahul Thakur</t>
+  </si>
+  <si>
+    <t>Rahul Singh Thakur</t>
+  </si>
+  <si>
+    <t>SM21059</t>
+  </si>
+  <si>
+    <t>P1001386963</t>
+  </si>
+  <si>
+    <t>Rahul Kadtan</t>
+  </si>
+  <si>
+    <t>P1001380497</t>
+  </si>
+  <si>
+    <t>rahul.zambare@heerasoftware.com</t>
+  </si>
+  <si>
+    <t>rahul.kumar@heera.com</t>
+  </si>
+  <si>
+    <t>rahul.jadhav@heerasoftware.com</t>
+  </si>
+  <si>
+    <t>pavan@heerasoftware.com</t>
+  </si>
+  <si>
+    <t>akash.kadtan@heerasoftware.com</t>
+  </si>
+  <si>
+    <t>pavan Thakur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ICE Diwali </t>
+  </si>
+  <si>
+    <t>SM002</t>
+  </si>
+  <si>
+    <t>SAP Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -561,7 +589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -598,7 +626,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -622,9 +649,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -662,9 +689,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -699,7 +726,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -734,7 +761,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -907,20 +934,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -930,10 +957,10 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -943,14 +970,14 @@
       <c r="C2" s="12">
         <v>568978</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
@@ -958,14 +985,14 @@
       <c r="C3" s="12">
         <v>568978</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>4</v>
@@ -973,14 +1000,14 @@
       <c r="C4" s="12">
         <v>568978</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>4</v>
@@ -988,14 +1015,14 @@
       <c r="C5" s="12">
         <v>568978</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>4</v>
@@ -1003,14 +1030,14 @@
       <c r="C6" s="12">
         <v>568978</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>4</v>
@@ -1018,14 +1045,14 @@
       <c r="C7" s="12">
         <v>568978</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>4</v>
@@ -1033,14 +1060,14 @@
       <c r="C8" s="12">
         <v>568978</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>4</v>
@@ -1048,14 +1075,14 @@
       <c r="C9" s="12">
         <v>568978</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -1063,9 +1090,9 @@
       <c r="C10" s="12">
         <v>568978</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="12" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1074,87 +1101,87 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="5" width="40.5546875" customWidth="1"/>
-    <col min="6" max="6" width="35.88671875" customWidth="1"/>
-    <col min="7" max="8" width="33.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="5" width="40.5703125" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+    <col min="7" max="8" width="33.5703125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="12" width="22.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" customWidth="1"/>
-    <col min="14" max="14" width="19.109375" customWidth="1"/>
-    <col min="15" max="15" width="39.5546875" customWidth="1"/>
-    <col min="16" max="16" width="37.88671875" customWidth="1"/>
+    <col min="10" max="12" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="39.5703125" customWidth="1"/>
+    <col min="16" max="16" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
@@ -1169,7 +1196,7 @@
         <v>500</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -1196,21 +1223,21 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="N3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="P3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1220,35 +1247,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>136</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>100000</v>
       </c>
@@ -1259,7 +1286,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1269,32 +1296,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="21.88671875" customWidth="1"/>
-    <col min="15" max="15" width="20.88671875" customWidth="1"/>
-    <col min="16" max="18" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="18" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1326,57 +1353,57 @@
         <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>102</v>
-      </c>
       <c r="P1" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>9654862012</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I2" s="2">
         <v>441611</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="L2" s="4">
         <v>10012022001234</v>
@@ -1385,145 +1412,163 @@
         <v>46317</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="P2" s="12">
         <v>441612</v>
       </c>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>411041</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
-        <v>9865470215</v>
+        <v>9865470216</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="I2" s="5">
         <v>34097</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2">
         <v>350</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="M2" s="4">
         <v>678987678987689</v>
@@ -1535,63 +1580,123 @@
         <v>234567890987654</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="S2" s="12">
         <v>441612</v>
       </c>
     </row>
+    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>411041</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9865470217</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="5">
+        <v>34097</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2">
+        <v>350</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="4">
+        <v>678987678987689</v>
+      </c>
+      <c r="N3" s="5">
+        <v>45955</v>
+      </c>
+      <c r="O3" s="4">
+        <v>234567890987654</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" s="12">
+        <v>441612</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{AD96EBDD-C700-466E-8BA7-0F0D84CF72CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>10</v>
@@ -1603,30 +1708,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
-        <v>9865124780</v>
+        <v>9865124790</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I2" s="2">
         <v>411041</v>
@@ -1634,53 +1739,53 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>10</v>
@@ -1689,42 +1794,42 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="F2" s="2">
-        <v>9657841203</v>
+        <v>9657841205</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2">
         <v>412012</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="4">
         <v>10012022001234</v>
@@ -1734,38 +1839,48 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{E8635E51-9E95-4162-B506-805607566779}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>146</v>
+      </c>
+      <c r="B2" s="1">
+        <v>65402</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -1774,121 +1889,121 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="38.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
-    <col min="15" max="15" width="23.44140625" customWidth="1"/>
-    <col min="16" max="16" width="20.88671875" customWidth="1"/>
+    <col min="1" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="E2" s="7">
         <v>411009</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G2" s="7">
-        <v>9667780366</v>
+        <v>9667780368</v>
       </c>
       <c r="H2" s="9">
         <v>757567567867</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="K2" s="10">
         <v>897979879849879</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="N2" s="7">
         <v>15000</v>
@@ -1898,93 +2013,137 @@
       </c>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H3" s="14">
-        <v>757567567567</v>
-      </c>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="7">
+        <v>411009</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="7">
+        <v>9667780369</v>
+      </c>
+      <c r="H3" s="9">
+        <v>757567567867</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="10">
+        <v>897979879849879</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N3" s="7">
+        <v>15000</v>
+      </c>
+      <c r="O3" s="7">
+        <v>7000</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{6AE7DA1A-5CC9-466E-9095-AE91629DE26B}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{FEAEAECE-911A-40C4-81E2-5F3FC9C97B08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="D2" s="7">
-        <v>9667774565</v>
+        <v>9667774566</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:roshan.zambare@heerasoftware.com" display="mailto:roshan.zambare@heerasoftware.com"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
